--- a/casestudies/merging-manual-working.xlsx
+++ b/casestudies/merging-manual-working.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cblevins/Dropbox/Projects/Annelise Heinz/mapping-the-gay-guides/MGG-LC-Data/casestudies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D629F9-29B8-904D-8580-207A088D25A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA37ACA-E33C-1746-89F6-B93E27157F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{46FBE2C9-40D4-7E4C-8FFA-2D1EEE8FBF35}"/>
+    <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{46FBE2C9-40D4-7E4C-8FFA-2D1EEE8FBF35}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
     <sheet name="hallie" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">hallie!$A$1:$P$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">hallie!$B$1:$Q$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">original!$A$1:$U$68</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="292">
   <si>
     <t>Gay Liberator</t>
   </si>
@@ -932,16 +932,26 @@
   </si>
   <si>
     <t>Location could not be verified. General city or location coordinates used.</t>
+  </si>
+  <si>
+    <t>notes.check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -967,11 +977,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1308,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D872B8-3C22-834A-B922-730E1490C5F8}">
   <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:T68"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1385,19 +1397,16 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -1414,11 +1423,14 @@
       <c r="J2">
         <v>1975</v>
       </c>
+      <c r="K2" t="s">
+        <v>241</v>
+      </c>
       <c r="L2" t="s">
         <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N2">
         <v>-83.0457538</v>
@@ -1429,40 +1441,40 @@
       <c r="P2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" t="s">
-        <v>286</v>
-      </c>
-      <c r="R2" t="s">
-        <v>286</v>
+      <c r="Q2">
+        <v>42.440033</v>
+      </c>
+      <c r="R2">
+        <v>-83.083229000000003</v>
       </c>
       <c r="S2">
-        <v>42.331426999999998</v>
+        <v>42.440033</v>
       </c>
       <c r="T2">
-        <v>-83.0457538</v>
+        <v>-83.083229000000003</v>
       </c>
       <c r="U2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -1471,57 +1483,57 @@
         <v>7</v>
       </c>
       <c r="J3">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="L3" t="s">
         <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="N3">
-        <v>-83.0457538</v>
+        <v>-122.6846997</v>
       </c>
       <c r="O3">
-        <v>42.331426999999998</v>
+        <v>45.522428699999999</v>
       </c>
       <c r="P3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>286</v>
-      </c>
-      <c r="R3" t="s">
-        <v>286</v>
+        <v>76</v>
+      </c>
+      <c r="Q3">
+        <v>45.360681</v>
+      </c>
+      <c r="R3">
+        <v>-122.600745</v>
       </c>
       <c r="S3">
-        <v>42.331426999999998</v>
+        <v>45.360681</v>
       </c>
       <c r="T3">
-        <v>-83.0457538</v>
+        <v>-122.600745</v>
       </c>
       <c r="U3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -1530,57 +1542,63 @@
         <v>7</v>
       </c>
       <c r="J4">
-        <v>1975</v>
+        <v>1985</v>
+      </c>
+      <c r="K4" t="s">
+        <v>243</v>
       </c>
       <c r="L4" t="s">
         <v>8</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="N4">
-        <v>-83.0457538</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="O4">
-        <v>42.331426999999998</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="P4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4">
-        <v>42.440033</v>
-      </c>
-      <c r="R4">
-        <v>-83.083229000000003</v>
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>286</v>
+      </c>
+      <c r="R4" t="s">
+        <v>286</v>
       </c>
       <c r="S4">
-        <v>42.440033</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="T4">
-        <v>-83.083229000000003</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="U4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>221</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -1589,54 +1607,51 @@
         <v>7</v>
       </c>
       <c r="J5">
-        <v>1975</v>
+        <v>1989</v>
       </c>
       <c r="L5" t="s">
         <v>8</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="N5">
-        <v>-70.667262100000002</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="O5">
-        <v>41.958445699999999</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="P5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q5">
-        <v>42.373010999999998</v>
-      </c>
-      <c r="R5">
-        <v>-83.187939</v>
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>286</v>
+      </c>
+      <c r="R5" t="s">
+        <v>286</v>
       </c>
       <c r="S5">
-        <v>42.373010999999998</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="T5">
-        <v>-83.187939</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="U5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
@@ -1651,34 +1666,37 @@
         <v>7</v>
       </c>
       <c r="J6">
-        <v>1975</v>
+        <v>1989</v>
+      </c>
+      <c r="K6" t="s">
+        <v>244</v>
       </c>
       <c r="L6" t="s">
         <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="N6">
-        <v>-122.6833385</v>
+        <v>-122.6783853</v>
       </c>
       <c r="O6">
-        <v>45.5111153</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="Q6">
-        <v>45.513370999999999</v>
+        <v>45.507235999999999</v>
       </c>
       <c r="R6">
-        <v>-122.68489099999999</v>
+        <v>-122.655764</v>
       </c>
       <c r="S6">
-        <v>45.513370999999999</v>
+        <v>45.507235999999999</v>
       </c>
       <c r="T6">
-        <v>-122.68489099999999</v>
+        <v>-122.655764</v>
       </c>
       <c r="U6" t="s">
         <v>289</v>
@@ -1686,25 +1704,22 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -1713,60 +1728,60 @@
         <v>7</v>
       </c>
       <c r="J7">
-        <v>1975</v>
+        <v>1977</v>
+      </c>
+      <c r="K7" t="s">
+        <v>246</v>
       </c>
       <c r="L7" t="s">
         <v>8</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="N7">
-        <v>-96.796987900000005</v>
+        <v>-83.0457538</v>
       </c>
       <c r="O7">
-        <v>32.776664199999999</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="P7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>286</v>
-      </c>
-      <c r="R7" t="s">
-        <v>286</v>
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>42.596446</v>
+      </c>
+      <c r="R7">
+        <v>-83.899548999999993</v>
       </c>
       <c r="S7">
-        <v>32.776664199999999</v>
+        <v>42.596446</v>
       </c>
       <c r="T7">
-        <v>-96.796987900000005</v>
+        <v>-83.899548999999993</v>
       </c>
       <c r="U7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -1775,60 +1790,60 @@
         <v>7</v>
       </c>
       <c r="J8">
-        <v>1975</v>
+        <v>1987</v>
+      </c>
+      <c r="K8" t="s">
+        <v>247</v>
       </c>
       <c r="L8" t="s">
         <v>8</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="N8">
-        <v>-96.796987900000005</v>
+        <v>-122.6783853</v>
       </c>
       <c r="O8">
-        <v>32.776664199999999</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="P8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>286</v>
-      </c>
-      <c r="R8" t="s">
-        <v>286</v>
+        <v>72</v>
+      </c>
+      <c r="Q8">
+        <v>45.562451000000003</v>
+      </c>
+      <c r="R8">
+        <v>-122.572908</v>
       </c>
       <c r="S8">
-        <v>32.776664199999999</v>
+        <v>45.562451000000003</v>
       </c>
       <c r="T8">
-        <v>-96.796987900000005</v>
+        <v>-122.572908</v>
       </c>
       <c r="U8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -1837,57 +1852,57 @@
         <v>7</v>
       </c>
       <c r="J9">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="L9" t="s">
         <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="N9">
-        <v>-96.811404800000005</v>
+        <v>-122.6783853</v>
       </c>
       <c r="O9">
-        <v>32.810642100000003</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9">
-        <v>32.810642000000001</v>
-      </c>
-      <c r="R9">
-        <v>-96.811404999999993</v>
+        <v>72</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>286</v>
+      </c>
+      <c r="R9" t="s">
+        <v>286</v>
       </c>
       <c r="S9">
-        <v>32.810642000000001</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="T9">
-        <v>-96.811404999999993</v>
+        <v>-122.6783853</v>
       </c>
       <c r="U9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -1896,22 +1911,22 @@
         <v>7</v>
       </c>
       <c r="J10">
-        <v>1977</v>
+        <v>1987</v>
       </c>
       <c r="L10" t="s">
         <v>8</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="N10">
-        <v>-83.0457538</v>
+        <v>-122.6783853</v>
       </c>
       <c r="O10">
-        <v>42.331426999999998</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="P10" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="Q10" t="s">
         <v>286</v>
@@ -1920,10 +1935,10 @@
         <v>286</v>
       </c>
       <c r="S10">
-        <v>42.331426999999998</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="T10">
-        <v>-83.0457538</v>
+        <v>-122.6783853</v>
       </c>
       <c r="U10" t="s">
         <v>290</v>
@@ -1931,22 +1946,22 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
         <v>6</v>
@@ -1955,22 +1970,22 @@
         <v>7</v>
       </c>
       <c r="J11">
-        <v>1977</v>
+        <v>1989</v>
       </c>
       <c r="L11" t="s">
         <v>8</v>
       </c>
       <c r="M11" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="N11">
-        <v>-83.0457538</v>
+        <v>-122.6783853</v>
       </c>
       <c r="O11">
-        <v>42.331426999999998</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="P11" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="Q11" t="s">
         <v>286</v>
@@ -1979,10 +1994,10 @@
         <v>286</v>
       </c>
       <c r="S11">
-        <v>42.331426999999998</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="T11">
-        <v>-83.0457538</v>
+        <v>-122.6783853</v>
       </c>
       <c r="U11" t="s">
         <v>290</v>
@@ -1990,22 +2005,25 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
@@ -2014,22 +2032,22 @@
         <v>7</v>
       </c>
       <c r="J12">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="L12" t="s">
         <v>8</v>
       </c>
       <c r="M12" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="N12">
-        <v>-83.0457538</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="O12">
-        <v>42.331426999999998</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="P12" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Q12" t="s">
         <v>286</v>
@@ -2038,10 +2056,10 @@
         <v>286</v>
       </c>
       <c r="S12">
-        <v>42.331426999999998</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="T12">
-        <v>-83.0457538</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="U12" t="s">
         <v>290</v>
@@ -2049,22 +2067,25 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>173</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
         <v>6</v>
@@ -2073,60 +2094,60 @@
         <v>7</v>
       </c>
       <c r="J13">
-        <v>1977</v>
+        <v>1987</v>
       </c>
       <c r="L13" t="s">
         <v>8</v>
       </c>
       <c r="M13" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="N13">
-        <v>-83.0457538</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="O13">
-        <v>42.331426999999998</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="P13" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="Q13">
-        <v>42.596446</v>
+        <v>32.810788000000002</v>
       </c>
       <c r="R13">
-        <v>-83.899548999999993</v>
+        <v>-96.810440999999997</v>
       </c>
       <c r="S13">
-        <v>42.596446</v>
+        <v>32.810788000000002</v>
       </c>
       <c r="T13">
-        <v>-83.899548999999993</v>
+        <v>-96.810440999999997</v>
       </c>
       <c r="U13" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>59</v>
+        <v>149</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="F14" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
         <v>6</v>
@@ -2135,60 +2156,57 @@
         <v>7</v>
       </c>
       <c r="J14">
-        <v>1977</v>
+        <v>1985</v>
       </c>
       <c r="L14" t="s">
         <v>8</v>
       </c>
       <c r="M14" t="s">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c r="N14">
-        <v>-83.169431500000002</v>
+        <v>-96.810985200000005</v>
       </c>
       <c r="O14">
-        <v>42.3240622</v>
+        <v>32.8122051</v>
       </c>
       <c r="P14" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>286</v>
-      </c>
-      <c r="R14" t="s">
-        <v>286</v>
+        <v>154</v>
+      </c>
+      <c r="Q14">
+        <v>32.810788000000002</v>
+      </c>
+      <c r="R14">
+        <v>-96.810440999999997</v>
       </c>
       <c r="S14">
-        <v>42.3240622</v>
+        <v>32.810788000000002</v>
       </c>
       <c r="T14">
-        <v>-83.169431500000002</v>
+        <v>-96.810440999999997</v>
       </c>
       <c r="U14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
@@ -2197,22 +2215,25 @@
         <v>7</v>
       </c>
       <c r="J15">
-        <v>1977</v>
+        <v>1981</v>
+      </c>
+      <c r="K15" t="s">
+        <v>248</v>
       </c>
       <c r="L15" t="s">
         <v>8</v>
       </c>
       <c r="M15" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="N15">
-        <v>-83.0457538</v>
+        <v>-122.6783853</v>
       </c>
       <c r="O15">
-        <v>42.331426999999998</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="P15" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="Q15" t="s">
         <v>286</v>
@@ -2221,10 +2242,10 @@
         <v>286</v>
       </c>
       <c r="S15">
-        <v>42.331426999999998</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="T15">
-        <v>-83.0457538</v>
+        <v>-122.6783853</v>
       </c>
       <c r="U15" t="s">
         <v>290</v>
@@ -2232,22 +2253,22 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>176</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
@@ -2256,57 +2277,57 @@
         <v>7</v>
       </c>
       <c r="J16">
-        <v>1977</v>
+        <v>1989</v>
       </c>
       <c r="L16" t="s">
         <v>8</v>
       </c>
       <c r="M16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="N16">
-        <v>-122.6783853</v>
+        <v>-83.0457538</v>
       </c>
       <c r="O16">
-        <v>45.515231999999997</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="P16" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q16">
-        <v>45.518417999999997</v>
-      </c>
-      <c r="R16">
-        <v>-122.681878</v>
+        <v>10</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>286</v>
+      </c>
+      <c r="R16" t="s">
+        <v>286</v>
       </c>
       <c r="S16">
-        <v>45.518417999999997</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="T16">
-        <v>-122.681878</v>
+        <v>-83.0457538</v>
       </c>
       <c r="U16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
         <v>6</v>
@@ -2315,34 +2336,37 @@
         <v>7</v>
       </c>
       <c r="J17">
-        <v>1977</v>
+        <v>1985</v>
+      </c>
+      <c r="K17" t="s">
+        <v>249</v>
       </c>
       <c r="L17" t="s">
         <v>8</v>
       </c>
       <c r="M17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="N17">
-        <v>-122.6846997</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="O17">
-        <v>45.522428699999999</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="P17" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="Q17">
-        <v>45.360681</v>
+        <v>32.901850000000003</v>
       </c>
       <c r="R17">
-        <v>-122.600745</v>
+        <v>-96.804329999999993</v>
       </c>
       <c r="S17">
-        <v>45.360681</v>
+        <v>32.901850000000003</v>
       </c>
       <c r="T17">
-        <v>-122.600745</v>
+        <v>-96.804329999999993</v>
       </c>
       <c r="U17" t="s">
         <v>289</v>
@@ -2350,16 +2374,16 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="F18" t="s">
         <v>33</v>
@@ -2374,7 +2398,10 @@
         <v>7</v>
       </c>
       <c r="J18">
-        <v>1977</v>
+        <v>1987</v>
+      </c>
+      <c r="K18" t="s">
+        <v>249</v>
       </c>
       <c r="L18" t="s">
         <v>8</v>
@@ -2391,40 +2418,37 @@
       <c r="P18" t="s">
         <v>36</v>
       </c>
-      <c r="Q18" t="s">
-        <v>286</v>
-      </c>
-      <c r="R18" t="s">
-        <v>286</v>
+      <c r="Q18">
+        <v>32.901850000000003</v>
+      </c>
+      <c r="R18">
+        <v>-96.804329999999993</v>
       </c>
       <c r="S18">
-        <v>32.776664199999999</v>
+        <v>32.901850000000003</v>
       </c>
       <c r="T18">
-        <v>-96.796987900000005</v>
+        <v>-96.804329999999993</v>
       </c>
       <c r="U18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
         <v>6</v>
@@ -2433,57 +2457,57 @@
         <v>7</v>
       </c>
       <c r="J19">
-        <v>1977</v>
+        <v>1985</v>
       </c>
       <c r="L19" t="s">
         <v>8</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="N19">
-        <v>-96.796987900000005</v>
+        <v>-83.0457538</v>
       </c>
       <c r="O19">
-        <v>32.776664199999999</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="P19" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19">
-        <v>32.810535000000002</v>
-      </c>
-      <c r="R19">
-        <v>-96.811070999999998</v>
+        <v>10</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>286</v>
+      </c>
+      <c r="R19" t="s">
+        <v>286</v>
       </c>
       <c r="S19">
-        <v>32.810535000000002</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="T19">
-        <v>-96.811070999999998</v>
+        <v>-83.0457538</v>
       </c>
       <c r="U19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
         <v>6</v>
@@ -2492,22 +2516,22 @@
         <v>7</v>
       </c>
       <c r="J20">
-        <v>1979</v>
+        <v>1989</v>
       </c>
       <c r="L20" t="s">
         <v>8</v>
       </c>
       <c r="M20" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="N20">
-        <v>-83.0457538</v>
+        <v>-122.6783853</v>
       </c>
       <c r="O20">
-        <v>42.331426999999998</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="P20" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="Q20" t="s">
         <v>286</v>
@@ -2516,10 +2540,10 @@
         <v>286</v>
       </c>
       <c r="S20">
-        <v>42.331426999999998</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="T20">
-        <v>-83.0457538</v>
+        <v>-122.6783853</v>
       </c>
       <c r="U20" t="s">
         <v>290</v>
@@ -2527,19 +2551,19 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>4</v>
@@ -2554,57 +2578,57 @@
         <v>7</v>
       </c>
       <c r="J21">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="L21" t="s">
         <v>8</v>
       </c>
       <c r="M21" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="N21">
-        <v>-83.256301699999995</v>
+        <v>-83.0457538</v>
       </c>
       <c r="O21">
-        <v>42.303012600000002</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="P21" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q21">
-        <v>42.351474000000003</v>
-      </c>
-      <c r="R21">
-        <v>-82.995119000000003</v>
+        <v>10</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>286</v>
+      </c>
+      <c r="R21" t="s">
+        <v>286</v>
       </c>
       <c r="S21">
-        <v>42.351474000000003</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="T21">
-        <v>-82.995119000000003</v>
+        <v>-83.0457538</v>
       </c>
       <c r="U21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
         <v>6</v>
@@ -2613,22 +2637,22 @@
         <v>7</v>
       </c>
       <c r="J22">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="L22" t="s">
         <v>8</v>
       </c>
       <c r="M22" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="N22">
-        <v>-122.6783853</v>
+        <v>-83.0457538</v>
       </c>
       <c r="O22">
-        <v>45.515231999999997</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="P22" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="Q22" t="s">
         <v>286</v>
@@ -2637,10 +2661,10 @@
         <v>286</v>
       </c>
       <c r="S22">
-        <v>45.515231999999997</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="T22">
-        <v>-122.6783853</v>
+        <v>-83.0457538</v>
       </c>
       <c r="U22" t="s">
         <v>290</v>
@@ -2648,16 +2672,16 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>4</v>
@@ -2672,7 +2696,7 @@
         <v>7</v>
       </c>
       <c r="J23">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="L23" t="s">
         <v>8</v>
@@ -2707,22 +2731,22 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="H24" t="s">
         <v>6</v>
@@ -2737,16 +2761,16 @@
         <v>8</v>
       </c>
       <c r="M24" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="N24">
-        <v>-122.6783853</v>
+        <v>-83.0457538</v>
       </c>
       <c r="O24">
-        <v>45.515231999999997</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="P24" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="Q24" t="s">
         <v>286</v>
@@ -2755,36 +2779,33 @@
         <v>286</v>
       </c>
       <c r="S24">
-        <v>45.515231999999997</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="T24">
-        <v>-122.6783853</v>
+        <v>-83.0457538</v>
       </c>
       <c r="U24" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>100</v>
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="H25" t="s">
         <v>6</v>
@@ -2793,22 +2814,22 @@
         <v>7</v>
       </c>
       <c r="J25">
-        <v>1981</v>
+        <v>1983</v>
       </c>
       <c r="L25" t="s">
         <v>8</v>
       </c>
       <c r="M25" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="N25">
-        <v>-122.6806194</v>
+        <v>-83.0457538</v>
       </c>
       <c r="O25">
-        <v>45.5211732</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="P25" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="Q25" t="s">
         <v>286</v>
@@ -2817,10 +2838,10 @@
         <v>286</v>
       </c>
       <c r="S25">
-        <v>45.5211732</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="T25">
-        <v>-122.6806194</v>
+        <v>-83.0457538</v>
       </c>
       <c r="U25" t="s">
         <v>290</v>
@@ -2828,25 +2849,22 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="H26" t="s">
         <v>6</v>
@@ -2855,22 +2873,22 @@
         <v>7</v>
       </c>
       <c r="J26">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="L26" t="s">
         <v>8</v>
       </c>
       <c r="M26" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="N26">
-        <v>-122.6037536</v>
+        <v>-83.0457538</v>
       </c>
       <c r="O26">
-        <v>45.535283499999998</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="P26" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="Q26" t="s">
         <v>286</v>
@@ -2879,10 +2897,10 @@
         <v>286</v>
       </c>
       <c r="S26">
-        <v>45.535283499999998</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="T26">
-        <v>-122.6037536</v>
+        <v>-83.0457538</v>
       </c>
       <c r="U26" t="s">
         <v>290</v>
@@ -2890,22 +2908,25 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" t="s">
-        <v>4</v>
-      </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
         <v>6</v>
@@ -2914,37 +2935,40 @@
         <v>7</v>
       </c>
       <c r="J27">
-        <v>1983</v>
+        <v>1975</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="L27" t="s">
         <v>8</v>
       </c>
       <c r="M27" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N27">
-        <v>-83.0457538</v>
+        <v>-122.6833385</v>
       </c>
       <c r="O27">
-        <v>42.331426999999998</v>
+        <v>45.5111153</v>
       </c>
       <c r="P27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>286</v>
-      </c>
-      <c r="R27" t="s">
-        <v>286</v>
+        <v>29</v>
+      </c>
+      <c r="Q27">
+        <v>45.513370999999999</v>
+      </c>
+      <c r="R27">
+        <v>-122.68489099999999</v>
       </c>
       <c r="S27">
-        <v>42.331426999999998</v>
+        <v>45.513370999999999</v>
       </c>
       <c r="T27">
-        <v>-83.0457538</v>
+        <v>-122.68489099999999</v>
       </c>
       <c r="U27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="170" x14ac:dyDescent="0.2">
@@ -3008,25 +3032,22 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
         <v>6</v>
@@ -3035,57 +3056,57 @@
         <v>7</v>
       </c>
       <c r="J29">
-        <v>1983</v>
+        <v>1989</v>
       </c>
       <c r="L29" t="s">
         <v>8</v>
       </c>
       <c r="M29" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="N29">
-        <v>-122.6792559</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="O29">
-        <v>45.512051200000002</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="P29" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q29">
-        <v>25.762421</v>
-      </c>
-      <c r="R29">
-        <v>-80.200874999999996</v>
+        <v>36</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>286</v>
+      </c>
+      <c r="R29" t="s">
+        <v>286</v>
       </c>
       <c r="S29">
-        <v>25.762421</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="T29">
-        <v>-80.200874999999996</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="U29" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
         <v>6</v>
@@ -3094,22 +3115,22 @@
         <v>7</v>
       </c>
       <c r="J30">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="L30" t="s">
         <v>8</v>
       </c>
       <c r="M30" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="N30">
-        <v>-122.6783853</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="O30">
-        <v>45.515231999999997</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="P30" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="Q30" t="s">
         <v>286</v>
@@ -3118,33 +3139,33 @@
         <v>286</v>
       </c>
       <c r="S30">
-        <v>45.515231999999997</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="T30">
-        <v>-122.6783853</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="U30" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="102" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>134</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H31" t="s">
         <v>6</v>
@@ -3155,23 +3176,20 @@
       <c r="J31">
         <v>1983</v>
       </c>
-      <c r="K31" t="s">
-        <v>124</v>
-      </c>
       <c r="L31" t="s">
         <v>8</v>
       </c>
       <c r="M31" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="N31">
-        <v>-122.6783853</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="O31">
-        <v>45.515231999999997</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="P31" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="Q31" t="s">
         <v>286</v>
@@ -3180,36 +3198,33 @@
         <v>286</v>
       </c>
       <c r="S31">
-        <v>45.515231999999997</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="T31">
-        <v>-122.6783853</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="U31" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="119" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
         <v>6</v>
@@ -3218,57 +3233,57 @@
         <v>7</v>
       </c>
       <c r="J32">
-        <v>1983</v>
+        <v>1985</v>
       </c>
       <c r="L32" t="s">
         <v>8</v>
       </c>
       <c r="M32" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="N32">
-        <v>-122.6411834</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="O32">
-        <v>45.535104799999999</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q32">
-        <v>45.535412000000001</v>
-      </c>
-      <c r="R32">
-        <v>-122.64106700000001</v>
+        <v>36</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>286</v>
+      </c>
+      <c r="R32" t="s">
+        <v>286</v>
       </c>
       <c r="S32">
-        <v>45.535412000000001</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="T32">
-        <v>-122.64106700000001</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="U32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>69</v>
+      </c>
+      <c r="E33" t="s">
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H33" t="s">
         <v>6</v>
@@ -3277,54 +3292,51 @@
         <v>7</v>
       </c>
       <c r="J33">
-        <v>1983</v>
-      </c>
-      <c r="K33" t="s">
-        <v>133</v>
+        <v>1977</v>
       </c>
       <c r="L33" t="s">
         <v>8</v>
       </c>
       <c r="M33" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="N33">
-        <v>-96.796987900000005</v>
+        <v>-122.6783853</v>
       </c>
       <c r="O33">
-        <v>32.776664199999999</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="P33" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>286</v>
-      </c>
-      <c r="R33" t="s">
-        <v>286</v>
+        <v>72</v>
+      </c>
+      <c r="Q33">
+        <v>45.518417999999997</v>
+      </c>
+      <c r="R33">
+        <v>-122.681878</v>
       </c>
       <c r="S33">
-        <v>32.776664199999999</v>
+        <v>45.518417999999997</v>
       </c>
       <c r="T33">
-        <v>-96.796987900000005</v>
+        <v>-122.681878</v>
       </c>
       <c r="U33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="F34" t="s">
         <v>33</v>
@@ -3339,7 +3351,7 @@
         <v>7</v>
       </c>
       <c r="J34">
-        <v>1983</v>
+        <v>1989</v>
       </c>
       <c r="L34" t="s">
         <v>8</v>
@@ -3374,13 +3386,16 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
         <v>4</v>
@@ -3395,7 +3410,7 @@
         <v>7</v>
       </c>
       <c r="J35">
-        <v>1985</v>
+        <v>1977</v>
       </c>
       <c r="L35" t="s">
         <v>8</v>
@@ -3428,21 +3443,21 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>137</v>
+        <v>160</v>
+      </c>
+      <c r="C36" t="s">
+        <v>161</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="F36" t="s">
         <v>26</v>
@@ -3457,51 +3472,54 @@
         <v>7</v>
       </c>
       <c r="J36">
-        <v>1985</v>
+        <v>1987</v>
       </c>
       <c r="L36" t="s">
         <v>8</v>
       </c>
       <c r="M36" t="s">
-        <v>139</v>
-      </c>
-      <c r="N36" t="s">
-        <v>140</v>
-      </c>
-      <c r="O36" t="s">
-        <v>140</v>
+        <v>163</v>
+      </c>
+      <c r="N36">
+        <v>-122.6783853</v>
+      </c>
+      <c r="O36">
+        <v>45.515231999999997</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q36">
-        <v>45.518194000000001</v>
-      </c>
-      <c r="R36">
-        <v>-122.68327499999999</v>
+        <v>72</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>286</v>
+      </c>
+      <c r="R36" t="s">
+        <v>286</v>
       </c>
       <c r="S36">
-        <v>45.518194000000001</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="T36">
-        <v>-122.68327499999999</v>
+        <v>-122.6783853</v>
       </c>
       <c r="U36" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="238" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" t="s">
-        <v>141</v>
+        <v>160</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>162</v>
       </c>
       <c r="F37" t="s">
         <v>26</v>
@@ -3516,13 +3534,13 @@
         <v>7</v>
       </c>
       <c r="J37">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="L37" t="s">
         <v>8</v>
       </c>
       <c r="M37" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
       <c r="N37">
         <v>-122.6783853</v>
@@ -3549,24 +3567,24 @@
         <v>290</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" ht="102" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" t="s">
-        <v>142</v>
+        <v>121</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
         <v>6</v>
@@ -3575,22 +3593,25 @@
         <v>7</v>
       </c>
       <c r="J38">
-        <v>1985</v>
+        <v>1983</v>
+      </c>
+      <c r="K38" t="s">
+        <v>124</v>
       </c>
       <c r="L38" t="s">
         <v>8</v>
       </c>
       <c r="M38" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="N38">
-        <v>-96.796987900000005</v>
+        <v>-122.6783853</v>
       </c>
       <c r="O38">
-        <v>32.776664199999999</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="P38" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="Q38" t="s">
         <v>286</v>
@@ -3599,30 +3620,30 @@
         <v>286</v>
       </c>
       <c r="S38">
-        <v>32.776664199999999</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="T38">
-        <v>-96.796987900000005</v>
+        <v>-122.6783853</v>
       </c>
       <c r="U38" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" t="s">
-        <v>143</v>
+        <v>202</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>204</v>
       </c>
       <c r="F39" t="s">
         <v>33</v>
@@ -3637,22 +3658,25 @@
         <v>7</v>
       </c>
       <c r="J39">
-        <v>1985</v>
+        <v>1989</v>
+      </c>
+      <c r="K39" t="s">
+        <v>252</v>
       </c>
       <c r="L39" t="s">
         <v>8</v>
       </c>
       <c r="M39" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="N39">
-        <v>-96.8</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="O39">
-        <v>32.78</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="Q39" t="s">
         <v>286</v>
@@ -3661,10 +3685,10 @@
         <v>286</v>
       </c>
       <c r="S39">
-        <v>32.78</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="T39">
-        <v>-96.8</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="U39" t="s">
         <v>290</v>
@@ -3672,13 +3696,13 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="D40" t="s">
         <v>127</v>
@@ -3696,7 +3720,7 @@
         <v>7</v>
       </c>
       <c r="J40">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="L40" t="s">
         <v>8</v>
@@ -3713,43 +3737,40 @@
       <c r="P40" t="s">
         <v>36</v>
       </c>
-      <c r="Q40">
-        <v>32.901850000000003</v>
-      </c>
-      <c r="R40">
-        <v>-96.804329999999993</v>
+      <c r="Q40" t="s">
+        <v>286</v>
+      </c>
+      <c r="R40" t="s">
+        <v>286</v>
       </c>
       <c r="S40">
-        <v>32.901850000000003</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="T40">
-        <v>-96.804329999999993</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="U40" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>150</v>
+        <v>189</v>
+      </c>
+      <c r="C41" t="s">
+        <v>190</v>
       </c>
       <c r="D41" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H41" t="s">
         <v>6</v>
@@ -3758,51 +3779,51 @@
         <v>7</v>
       </c>
       <c r="J41">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="L41" t="s">
         <v>8</v>
       </c>
       <c r="M41" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="N41">
-        <v>-96.810985200000005</v>
+        <v>-122.6783853</v>
       </c>
       <c r="O41">
-        <v>32.8122051</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q41">
-        <v>32.810788000000002</v>
-      </c>
-      <c r="R41">
-        <v>-96.810440999999997</v>
+        <v>72</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>286</v>
+      </c>
+      <c r="R41" t="s">
+        <v>286</v>
       </c>
       <c r="S41">
-        <v>32.810788000000002</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="T41">
-        <v>-96.810440999999997</v>
+        <v>-122.6783853</v>
       </c>
       <c r="U41" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" t="s">
-        <v>156</v>
+        <v>211</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="D42" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="F42" t="s">
         <v>33</v>
@@ -3817,7 +3838,10 @@
         <v>7</v>
       </c>
       <c r="J42">
-        <v>1985</v>
+        <v>1989</v>
+      </c>
+      <c r="K42" t="s">
+        <v>253</v>
       </c>
       <c r="L42" t="s">
         <v>8</v>
@@ -3834,76 +3858,82 @@
       <c r="P42" t="s">
         <v>36</v>
       </c>
-      <c r="Q42" t="s">
-        <v>286</v>
-      </c>
-      <c r="R42" t="s">
-        <v>286</v>
+      <c r="Q42">
+        <v>32.807853999999999</v>
+      </c>
+      <c r="R42">
+        <v>-96.813775000000007</v>
       </c>
       <c r="S42">
+        <v>32.807853999999999</v>
+      </c>
+      <c r="T42">
+        <v>-96.813775000000007</v>
+      </c>
+      <c r="U42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" t="s">
+        <v>216</v>
+      </c>
+      <c r="F43" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43">
+        <v>1989</v>
+      </c>
+      <c r="K43" t="s">
+        <v>253</v>
+      </c>
+      <c r="L43" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" t="s">
+        <v>217</v>
+      </c>
+      <c r="N43">
+        <v>-96.796987900000005</v>
+      </c>
+      <c r="O43">
         <v>32.776664199999999</v>
       </c>
-      <c r="T42">
-        <v>-96.796987900000005</v>
-      </c>
-      <c r="U42" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" t="s">
-        <v>158</v>
-      </c>
-      <c r="D43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F43" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" t="s">
-        <v>6</v>
-      </c>
-      <c r="I43" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43">
-        <v>1987</v>
-      </c>
-      <c r="L43" t="s">
-        <v>8</v>
-      </c>
-      <c r="M43" t="s">
-        <v>93</v>
-      </c>
-      <c r="N43">
-        <v>-122.6783853</v>
-      </c>
-      <c r="O43">
-        <v>45.515231999999997</v>
-      </c>
       <c r="P43" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="Q43">
-        <v>45.529505999999998</v>
+        <v>32.807853999999999</v>
       </c>
       <c r="R43">
-        <v>-122.687766</v>
+        <v>-96.813775000000007</v>
       </c>
       <c r="S43">
-        <v>45.529505999999998</v>
+        <v>32.807853999999999</v>
       </c>
       <c r="T43">
-        <v>-122.687766</v>
+        <v>-96.813775000000007</v>
       </c>
       <c r="U43" t="s">
         <v>289</v>
@@ -3911,25 +3941,25 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H44" t="s">
         <v>6</v>
@@ -3938,22 +3968,22 @@
         <v>7</v>
       </c>
       <c r="J44">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="L44" t="s">
         <v>8</v>
       </c>
       <c r="M44" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="N44">
-        <v>-122.6783853</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="O44">
-        <v>45.515231999999997</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="P44" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="Q44" t="s">
         <v>286</v>
@@ -3962,10 +3992,10 @@
         <v>286</v>
       </c>
       <c r="S44">
-        <v>45.515231999999997</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="T44">
-        <v>-122.6783853</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="U44" t="s">
         <v>290</v>
@@ -3973,22 +4003,22 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="H45" t="s">
         <v>6</v>
@@ -3997,22 +4027,22 @@
         <v>7</v>
       </c>
       <c r="J45">
-        <v>1987</v>
+        <v>1977</v>
       </c>
       <c r="L45" t="s">
         <v>8</v>
       </c>
       <c r="M45" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="N45">
-        <v>-122.6783853</v>
+        <v>-83.0457538</v>
       </c>
       <c r="O45">
-        <v>45.515231999999997</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="P45" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="Q45" t="s">
         <v>286</v>
@@ -4021,10 +4051,10 @@
         <v>286</v>
       </c>
       <c r="S45">
-        <v>45.515231999999997</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="T45">
-        <v>-122.6783853</v>
+        <v>-83.0457538</v>
       </c>
       <c r="U45" t="s">
         <v>290</v>
@@ -4032,22 +4062,25 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>144</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H46" t="s">
         <v>6</v>
@@ -4056,22 +4089,22 @@
         <v>7</v>
       </c>
       <c r="J46">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="L46" t="s">
         <v>8</v>
       </c>
       <c r="M46" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="N46">
-        <v>-122.6783853</v>
+        <v>-96.8</v>
       </c>
       <c r="O46">
-        <v>45.515231999999997</v>
+        <v>32.78</v>
       </c>
       <c r="P46" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="Q46" t="s">
         <v>286</v>
@@ -4080,10 +4113,10 @@
         <v>286</v>
       </c>
       <c r="S46">
-        <v>45.515231999999997</v>
+        <v>32.78</v>
       </c>
       <c r="T46">
-        <v>-122.6783853</v>
+        <v>-96.8</v>
       </c>
       <c r="U46" t="s">
         <v>290</v>
@@ -4091,140 +4124,146 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" t="s">
+        <v>6</v>
+      </c>
+      <c r="I47" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47">
+        <v>1983</v>
+      </c>
+      <c r="K47" t="s">
+        <v>133</v>
+      </c>
+      <c r="L47" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" t="s">
+        <v>80</v>
+      </c>
+      <c r="N47">
+        <v>-96.796987900000005</v>
+      </c>
+      <c r="O47">
+        <v>32.776664199999999</v>
+      </c>
+      <c r="P47" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>286</v>
+      </c>
+      <c r="R47" t="s">
+        <v>286</v>
+      </c>
+      <c r="S47">
+        <v>32.776664199999999</v>
+      </c>
+      <c r="T47">
+        <v>-96.796987900000005</v>
+      </c>
+      <c r="U47" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="119" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" t="s">
         <v>26</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" t="s">
         <v>27</v>
       </c>
-      <c r="H47" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" t="s">
-        <v>7</v>
-      </c>
-      <c r="J47">
-        <v>1987</v>
-      </c>
-      <c r="L47" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" t="s">
-        <v>93</v>
-      </c>
-      <c r="N47">
-        <v>-122.6783853</v>
-      </c>
-      <c r="O47">
-        <v>45.515231999999997</v>
-      </c>
-      <c r="P47" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q47">
-        <v>45.562451000000003</v>
-      </c>
-      <c r="R47">
-        <v>-122.572908</v>
-      </c>
-      <c r="S47">
-        <v>45.562451000000003</v>
-      </c>
-      <c r="T47">
-        <v>-122.572908</v>
-      </c>
-      <c r="U47" t="s">
+      <c r="H48" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48">
+        <v>1983</v>
+      </c>
+      <c r="L48" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" t="s">
+        <v>129</v>
+      </c>
+      <c r="N48">
+        <v>-122.6411834</v>
+      </c>
+      <c r="O48">
+        <v>45.535104799999999</v>
+      </c>
+      <c r="P48" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q48">
+        <v>45.535412000000001</v>
+      </c>
+      <c r="R48">
+        <v>-122.64106700000001</v>
+      </c>
+      <c r="S48">
+        <v>45.535412000000001</v>
+      </c>
+      <c r="T48">
+        <v>-122.64106700000001</v>
+      </c>
+      <c r="U48" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" t="s">
-        <v>169</v>
-      </c>
-      <c r="D48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" t="s">
-        <v>34</v>
-      </c>
-      <c r="H48" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" t="s">
-        <v>7</v>
-      </c>
-      <c r="J48">
-        <v>1987</v>
-      </c>
-      <c r="L48" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" t="s">
-        <v>80</v>
-      </c>
-      <c r="N48">
-        <v>-96.796987900000005</v>
-      </c>
-      <c r="O48">
-        <v>32.776664199999999</v>
-      </c>
-      <c r="P48" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>286</v>
-      </c>
-      <c r="R48" t="s">
-        <v>286</v>
-      </c>
-      <c r="S48">
-        <v>32.776664199999999</v>
-      </c>
-      <c r="T48">
-        <v>-96.796987900000005</v>
-      </c>
-      <c r="U48" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H49" t="s">
         <v>6</v>
@@ -4239,54 +4278,54 @@
         <v>8</v>
       </c>
       <c r="M49" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="N49">
-        <v>-96.796987900000005</v>
+        <v>-122.6783853</v>
       </c>
       <c r="O49">
-        <v>32.776664199999999</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="P49" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q49">
-        <v>32.901850000000003</v>
-      </c>
-      <c r="R49">
-        <v>-96.804329999999993</v>
+        <v>72</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>286</v>
+      </c>
+      <c r="R49" t="s">
+        <v>286</v>
       </c>
       <c r="S49">
-        <v>32.901850000000003</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="T49">
-        <v>-96.804329999999993</v>
+        <v>-122.6783853</v>
       </c>
       <c r="U49" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="D50" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H50" t="s">
         <v>6</v>
@@ -4295,57 +4334,63 @@
         <v>7</v>
       </c>
       <c r="J50">
-        <v>1987</v>
+        <v>1979</v>
+      </c>
+      <c r="K50" t="s">
+        <v>256</v>
       </c>
       <c r="L50" t="s">
         <v>8</v>
       </c>
       <c r="M50" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="N50">
-        <v>-96.796987900000005</v>
+        <v>-83.256301699999995</v>
       </c>
       <c r="O50">
-        <v>32.776664199999999</v>
+        <v>42.303012600000002</v>
       </c>
       <c r="P50" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="Q50">
-        <v>32.810788000000002</v>
+        <v>42.351474000000003</v>
       </c>
       <c r="R50">
-        <v>-96.810440999999997</v>
+        <v>-82.995119000000003</v>
       </c>
       <c r="S50">
-        <v>32.810788000000002</v>
+        <v>42.351474000000003</v>
       </c>
       <c r="T50">
-        <v>-96.810440999999997</v>
+        <v>-82.995119000000003</v>
       </c>
       <c r="U50" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" t="s">
-        <v>177</v>
+        <v>99</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="D51" t="s">
-        <v>178</v>
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>101</v>
       </c>
       <c r="F51" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G51" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H51" t="s">
         <v>6</v>
@@ -4354,22 +4399,22 @@
         <v>7</v>
       </c>
       <c r="J51">
-        <v>1989</v>
+        <v>1981</v>
       </c>
       <c r="L51" t="s">
         <v>8</v>
       </c>
       <c r="M51" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="N51">
-        <v>-83.0457538</v>
+        <v>-122.6806194</v>
       </c>
       <c r="O51">
-        <v>42.331426999999998</v>
+        <v>45.5211732</v>
       </c>
       <c r="P51" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="Q51" t="s">
         <v>286</v>
@@ -4378,10 +4423,10 @@
         <v>286</v>
       </c>
       <c r="S51">
-        <v>42.331426999999998</v>
+        <v>45.5211732</v>
       </c>
       <c r="T51">
-        <v>-83.0457538</v>
+        <v>-122.6806194</v>
       </c>
       <c r="U51" t="s">
         <v>290</v>
@@ -4389,22 +4434,22 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="D52" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="F52" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H52" t="s">
         <v>6</v>
@@ -4413,34 +4458,34 @@
         <v>7</v>
       </c>
       <c r="J52">
-        <v>1989</v>
+        <v>1977</v>
       </c>
       <c r="L52" t="s">
         <v>8</v>
       </c>
       <c r="M52" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="N52">
-        <v>-122.6783853</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="O52">
-        <v>45.515231999999997</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="P52" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="Q52">
-        <v>45.536361999999997</v>
+        <v>32.810535000000002</v>
       </c>
       <c r="R52">
-        <v>-122.66392999999999</v>
+        <v>-96.811070999999998</v>
       </c>
       <c r="S52">
-        <v>45.536361999999997</v>
+        <v>32.810535000000002</v>
       </c>
       <c r="T52">
-        <v>-122.66392999999999</v>
+        <v>-96.811070999999998</v>
       </c>
       <c r="U52" t="s">
         <v>289</v>
@@ -4448,16 +4493,16 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s">
         <v>26</v>
@@ -4472,7 +4517,10 @@
         <v>7</v>
       </c>
       <c r="J53">
-        <v>1989</v>
+        <v>1985</v>
+      </c>
+      <c r="K53" t="s">
+        <v>257</v>
       </c>
       <c r="L53" t="s">
         <v>8</v>
@@ -4489,37 +4537,34 @@
       <c r="P53" t="s">
         <v>72</v>
       </c>
-      <c r="Q53">
-        <v>45.507235999999999</v>
-      </c>
-      <c r="R53">
-        <v>-122.655764</v>
+      <c r="Q53" t="s">
+        <v>286</v>
+      </c>
+      <c r="R53" t="s">
+        <v>286</v>
       </c>
       <c r="S53">
-        <v>45.507235999999999</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="T53">
-        <v>-122.655764</v>
+        <v>-122.6783853</v>
       </c>
       <c r="U53" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="D54" t="s">
-        <v>186</v>
-      </c>
-      <c r="E54" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="F54" t="s">
         <v>26</v>
@@ -4534,13 +4579,13 @@
         <v>7</v>
       </c>
       <c r="J54">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="L54" t="s">
         <v>8</v>
       </c>
       <c r="M54" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="N54">
         <v>-122.6783853</v>
@@ -4569,16 +4614,16 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F55" t="s">
         <v>26</v>
@@ -4595,6 +4640,9 @@
       <c r="J55">
         <v>1989</v>
       </c>
+      <c r="K55" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="L55" t="s">
         <v>8</v>
       </c>
@@ -4610,20 +4658,20 @@
       <c r="P55" t="s">
         <v>72</v>
       </c>
-      <c r="Q55" t="s">
-        <v>286</v>
-      </c>
-      <c r="R55" t="s">
-        <v>286</v>
+      <c r="Q55">
+        <v>45.536361999999997</v>
+      </c>
+      <c r="R55">
+        <v>-122.66392999999999</v>
       </c>
       <c r="S55">
-        <v>45.515231999999997</v>
+        <v>45.536361999999997</v>
       </c>
       <c r="T55">
-        <v>-122.6783853</v>
+        <v>-122.66392999999999</v>
       </c>
       <c r="U55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
@@ -4654,6 +4702,9 @@
       <c r="J56">
         <v>1989</v>
       </c>
+      <c r="K56" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="L56" t="s">
         <v>8</v>
       </c>
@@ -4685,21 +4736,18 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="238" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>193</v>
+        <v>157</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
       </c>
       <c r="D57" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F57" t="s">
         <v>26</v>
@@ -4714,13 +4762,16 @@
         <v>7</v>
       </c>
       <c r="J57">
-        <v>1989</v>
+        <v>1987</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="L57" t="s">
         <v>8</v>
       </c>
       <c r="M57" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="N57">
         <v>-122.6783853</v>
@@ -4731,34 +4782,37 @@
       <c r="P57" t="s">
         <v>72</v>
       </c>
-      <c r="Q57" t="s">
-        <v>286</v>
-      </c>
-      <c r="R57" t="s">
-        <v>286</v>
+      <c r="Q57">
+        <v>45.529505999999998</v>
+      </c>
+      <c r="R57">
+        <v>-122.687766</v>
       </c>
       <c r="S57">
-        <v>45.515231999999997</v>
+        <v>45.529505999999998</v>
       </c>
       <c r="T57">
-        <v>-122.6783853</v>
+        <v>-122.687766</v>
       </c>
       <c r="U57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>191</v>
+        <v>106</v>
+      </c>
+      <c r="E58" t="s">
+        <v>107</v>
       </c>
       <c r="F58" t="s">
         <v>26</v>
@@ -4773,22 +4827,22 @@
         <v>7</v>
       </c>
       <c r="J58">
-        <v>1989</v>
+        <v>1981</v>
       </c>
       <c r="L58" t="s">
         <v>8</v>
       </c>
       <c r="M58" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="N58">
-        <v>-122.6783853</v>
+        <v>-122.6037536</v>
       </c>
       <c r="O58">
-        <v>45.515231999999997</v>
+        <v>45.535283499999998</v>
       </c>
       <c r="P58" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="Q58" t="s">
         <v>286</v>
@@ -4797,33 +4851,33 @@
         <v>286</v>
       </c>
       <c r="S58">
-        <v>45.515231999999997</v>
+        <v>45.535283499999998</v>
       </c>
       <c r="T58">
-        <v>-122.6783853</v>
+        <v>-122.6037536</v>
       </c>
       <c r="U58" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="153" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>196</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>197</v>
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H59" t="s">
         <v>6</v>
@@ -4832,51 +4886,54 @@
         <v>7</v>
       </c>
       <c r="J59">
-        <v>1989</v>
+        <v>1977</v>
       </c>
       <c r="L59" t="s">
         <v>8</v>
       </c>
       <c r="M59" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="N59">
-        <v>-122.6783853</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="O59">
-        <v>45.515231999999997</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="P59" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q59">
-        <v>45.522750000000002</v>
-      </c>
-      <c r="R59">
-        <v>-122.65258300000001</v>
+        <v>36</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>286</v>
+      </c>
+      <c r="R59" t="s">
+        <v>286</v>
       </c>
       <c r="S59">
-        <v>45.522750000000002</v>
+        <v>32.776664199999999</v>
       </c>
       <c r="T59">
-        <v>-122.65258300000001</v>
+        <v>-96.796987900000005</v>
       </c>
       <c r="U59" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="34" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
-      </c>
-      <c r="C60" t="s">
-        <v>200</v>
+        <v>136</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>201</v>
+        <v>69</v>
+      </c>
+      <c r="E60" t="s">
+        <v>138</v>
       </c>
       <c r="F60" t="s">
         <v>26</v>
@@ -4891,60 +4948,57 @@
         <v>7</v>
       </c>
       <c r="J60">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="L60" t="s">
         <v>8</v>
       </c>
       <c r="M60" t="s">
-        <v>93</v>
-      </c>
-      <c r="N60">
-        <v>-122.6783853</v>
-      </c>
-      <c r="O60">
-        <v>45.515231999999997</v>
+        <v>139</v>
+      </c>
+      <c r="N60" t="s">
+        <v>140</v>
+      </c>
+      <c r="O60" t="s">
+        <v>140</v>
       </c>
       <c r="P60" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>286</v>
-      </c>
-      <c r="R60" t="s">
-        <v>286</v>
+        <v>140</v>
+      </c>
+      <c r="Q60">
+        <v>45.518194000000001</v>
+      </c>
+      <c r="R60">
+        <v>-122.68327499999999</v>
       </c>
       <c r="S60">
-        <v>45.515231999999997</v>
+        <v>45.518194000000001</v>
       </c>
       <c r="T60">
-        <v>-122.6783853</v>
+        <v>-122.68327499999999</v>
       </c>
       <c r="U60" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>202</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="E61" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H61" t="s">
         <v>6</v>
@@ -4953,54 +5007,57 @@
         <v>7</v>
       </c>
       <c r="J61">
-        <v>1989</v>
+        <v>1975</v>
+      </c>
+      <c r="K61" t="s">
+        <v>270</v>
       </c>
       <c r="L61" t="s">
         <v>8</v>
       </c>
       <c r="M61" t="s">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="N61">
-        <v>-96.796987900000005</v>
+        <v>-70.667262100000002</v>
       </c>
       <c r="O61">
-        <v>32.776664199999999</v>
+        <v>41.958445699999999</v>
       </c>
       <c r="P61" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>286</v>
-      </c>
-      <c r="R61" t="s">
-        <v>286</v>
+        <v>21</v>
+      </c>
+      <c r="Q61">
+        <v>42.373010999999998</v>
+      </c>
+      <c r="R61">
+        <v>-83.187939</v>
       </c>
       <c r="S61">
-        <v>32.776664199999999</v>
+        <v>42.373010999999998</v>
       </c>
       <c r="T61">
-        <v>-96.796987900000005</v>
+        <v>-83.187939</v>
       </c>
       <c r="U61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="D62" t="s">
-        <v>208</v>
+        <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
         <v>33</v>
@@ -5015,13 +5072,13 @@
         <v>7</v>
       </c>
       <c r="J62">
-        <v>1989</v>
+        <v>1975</v>
       </c>
       <c r="L62" t="s">
         <v>8</v>
       </c>
       <c r="M62" t="s">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="N62">
         <v>-96.796987900000005</v>
@@ -5048,24 +5105,27 @@
         <v>290</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>211</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>212</v>
+        <v>184</v>
+      </c>
+      <c r="C63" t="s">
+        <v>185</v>
       </c>
       <c r="D63" t="s">
-        <v>178</v>
+        <v>186</v>
+      </c>
+      <c r="E63" t="s">
+        <v>187</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H63" t="s">
         <v>6</v>
@@ -5076,49 +5136,55 @@
       <c r="J63">
         <v>1989</v>
       </c>
+      <c r="K63" t="s">
+        <v>260</v>
+      </c>
       <c r="L63" t="s">
         <v>8</v>
       </c>
       <c r="M63" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="N63">
-        <v>-96.796987900000005</v>
+        <v>-122.6783853</v>
       </c>
       <c r="O63">
-        <v>32.776664199999999</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="P63" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q63">
-        <v>32.807853999999999</v>
-      </c>
-      <c r="R63">
-        <v>-96.813775000000007</v>
+        <v>72</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>286</v>
+      </c>
+      <c r="R63" t="s">
+        <v>286</v>
       </c>
       <c r="S63">
-        <v>32.807853999999999</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="T63">
-        <v>-96.813775000000007</v>
+        <v>-122.6783853</v>
       </c>
       <c r="U63" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
-        <v>178</v>
+        <v>17</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
       </c>
       <c r="F64" t="s">
         <v>33</v>
@@ -5133,119 +5199,122 @@
         <v>7</v>
       </c>
       <c r="J64">
-        <v>1989</v>
+        <v>1975</v>
       </c>
       <c r="L64" t="s">
         <v>8</v>
       </c>
       <c r="M64" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="N64">
-        <v>-96.796987900000005</v>
+        <v>-96.811404800000005</v>
       </c>
       <c r="O64">
-        <v>32.776664199999999</v>
+        <v>32.810642100000003</v>
       </c>
       <c r="P64" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q64">
+        <v>32.810642000000001</v>
+      </c>
+      <c r="R64">
+        <v>-96.811404999999993</v>
+      </c>
+      <c r="S64">
+        <v>32.810642000000001</v>
+      </c>
+      <c r="T64">
+        <v>-96.811404999999993</v>
+      </c>
+      <c r="U64" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>5</v>
+      </c>
+      <c r="H65" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65">
+        <v>1977</v>
+      </c>
+      <c r="L65" t="s">
+        <v>8</v>
+      </c>
+      <c r="M65" t="s">
+        <v>61</v>
+      </c>
+      <c r="N65">
+        <v>-83.169431500000002</v>
+      </c>
+      <c r="O65">
+        <v>42.3240622</v>
+      </c>
+      <c r="P65" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q65" t="s">
         <v>286</v>
       </c>
-      <c r="R64" t="s">
+      <c r="R65" t="s">
         <v>286</v>
       </c>
-      <c r="S64">
-        <v>32.776664199999999</v>
-      </c>
-      <c r="T64">
-        <v>-96.796987900000005</v>
-      </c>
-      <c r="U64" t="s">
+      <c r="S65">
+        <v>42.3240622</v>
+      </c>
+      <c r="T65">
+        <v>-83.169431500000002</v>
+      </c>
+      <c r="U65" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D65" t="s">
-        <v>151</v>
-      </c>
-      <c r="E65" t="s">
-        <v>216</v>
-      </c>
-      <c r="F65" t="s">
-        <v>33</v>
-      </c>
-      <c r="G65" t="s">
-        <v>34</v>
-      </c>
-      <c r="H65" t="s">
-        <v>6</v>
-      </c>
-      <c r="I65" t="s">
-        <v>7</v>
-      </c>
-      <c r="J65">
-        <v>1989</v>
-      </c>
-      <c r="L65" t="s">
-        <v>8</v>
-      </c>
-      <c r="M65" t="s">
-        <v>217</v>
-      </c>
-      <c r="N65">
-        <v>-96.796987900000005</v>
-      </c>
-      <c r="O65">
-        <v>32.776664199999999</v>
-      </c>
-      <c r="P65" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q65">
-        <v>32.807853999999999</v>
-      </c>
-      <c r="R65">
-        <v>-96.813775000000007</v>
-      </c>
-      <c r="S65">
-        <v>32.807853999999999</v>
-      </c>
-      <c r="T65">
-        <v>-96.813775000000007</v>
-      </c>
-      <c r="U65" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="D66" t="s">
-        <v>127</v>
+        <v>115</v>
+      </c>
+      <c r="E66" t="s">
+        <v>116</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H66" t="s">
         <v>6</v>
@@ -5254,57 +5323,57 @@
         <v>7</v>
       </c>
       <c r="J66">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="L66" t="s">
         <v>8</v>
       </c>
       <c r="M66" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="N66">
-        <v>-96.796987900000005</v>
+        <v>-122.6792559</v>
       </c>
       <c r="O66">
-        <v>32.776664199999999</v>
+        <v>45.512051200000002</v>
       </c>
       <c r="P66" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>286</v>
-      </c>
-      <c r="R66" t="s">
-        <v>286</v>
+        <v>118</v>
+      </c>
+      <c r="Q66">
+        <v>25.762421</v>
+      </c>
+      <c r="R66">
+        <v>-80.200874999999996</v>
       </c>
       <c r="S66">
-        <v>32.776664199999999</v>
+        <v>25.762421</v>
       </c>
       <c r="T66">
-        <v>-96.796987900000005</v>
+        <v>-80.200874999999996</v>
       </c>
       <c r="U66" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="153" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>219</v>
-      </c>
-      <c r="C67" t="s">
-        <v>220</v>
+        <v>196</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H67" t="s">
         <v>6</v>
@@ -5315,82 +5384,85 @@
       <c r="J67">
         <v>1989</v>
       </c>
+      <c r="K67" t="s">
+        <v>278</v>
+      </c>
       <c r="L67" t="s">
         <v>8</v>
       </c>
       <c r="M67" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="N67">
-        <v>-96.796987900000005</v>
+        <v>-122.6783853</v>
       </c>
       <c r="O67">
-        <v>32.776664199999999</v>
+        <v>45.515231999999997</v>
       </c>
       <c r="P67" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>286</v>
-      </c>
-      <c r="R67" t="s">
-        <v>286</v>
+        <v>72</v>
+      </c>
+      <c r="Q67">
+        <v>45.522750000000002</v>
+      </c>
+      <c r="R67">
+        <v>-122.65258300000001</v>
       </c>
       <c r="S67">
-        <v>32.776664199999999</v>
+        <v>45.522750000000002</v>
       </c>
       <c r="T67">
-        <v>-96.796987900000005</v>
+        <v>-122.65258300000001</v>
       </c>
       <c r="U67" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" t="s">
+        <v>7</v>
+      </c>
+      <c r="J68">
+        <v>1977</v>
+      </c>
+      <c r="L68" t="s">
+        <v>8</v>
+      </c>
+      <c r="M68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>221</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D68" t="s">
-        <v>151</v>
-      </c>
-      <c r="E68" t="s">
-        <v>216</v>
-      </c>
-      <c r="F68" t="s">
-        <v>33</v>
-      </c>
-      <c r="G68" t="s">
-        <v>34</v>
-      </c>
-      <c r="H68" t="s">
-        <v>6</v>
-      </c>
-      <c r="I68" t="s">
-        <v>7</v>
-      </c>
-      <c r="J68">
-        <v>1989</v>
-      </c>
-      <c r="L68" t="s">
-        <v>8</v>
-      </c>
-      <c r="M68" t="s">
-        <v>217</v>
-      </c>
       <c r="N68">
-        <v>-96.796987900000005</v>
+        <v>-83.0457538</v>
       </c>
       <c r="O68">
-        <v>32.776664199999999</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="P68" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="Q68" t="s">
         <v>286</v>
@@ -5399,3050 +5471,3525 @@
         <v>286</v>
       </c>
       <c r="S68">
-        <v>32.776664199999999</v>
+        <v>42.331426999999998</v>
       </c>
       <c r="T68">
-        <v>-96.796987900000005</v>
+        <v>-83.0457538</v>
       </c>
       <c r="U68" t="s">
         <v>290</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U68" xr:uid="{37D872B8-3C22-834A-B922-730E1490C5F8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U68">
-      <sortCondition ref="A1:A68"/>
-    </sortState>
-  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U68">
+    <sortCondition ref="B2:B68"/>
+    <sortCondition ref="C2:C68"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9A569F-6CB1-3F45-AE72-0CBB29441BA2}">
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="14" max="14" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" t="s">
         <v>224</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>239</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>237</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>236</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>225</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>227</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>228</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>229</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>230</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>231</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>234</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>232</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>226</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>233</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>284</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="R1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>240</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>42.440033</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-83.083229000000003</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>261</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
       <c r="J2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2">
         <v>1975</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>241</v>
-      </c>
-      <c r="O2">
-        <f>IF(C2&lt;&gt;"", C2, "no latitude")</f>
-        <v>42.440033</v>
       </c>
       <c r="P2">
         <f>IF(D2&lt;&gt;"", D2, "no latitude")</f>
+        <v>42.440033</v>
+      </c>
+      <c r="Q2">
+        <f>IF(E2&lt;&gt;"", E2, "no latitude")</f>
         <v>-83.083229000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="R2" t="str">
+        <f>IF(O2&lt;&gt;original!K2, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>240</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>45.360681</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-122.600745</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>74</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3">
         <v>1977</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>65</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:P66" si="0">IF(C3&lt;&gt;"", C3, "no latitude")</f>
+      <c r="P3">
+        <f t="shared" ref="P3:Q66" si="0">IF(D3&lt;&gt;"", D3, "no latitude")</f>
         <v>45.360681</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <f t="shared" si="0"/>
         <v>-122.600745</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="R3" t="str">
+        <f>IF(O3&lt;&gt;original!K3, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
         <v>155</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>242</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>156</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4">
         <v>1985</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>127</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>243</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="R4" t="str">
+        <f>IF(O4&lt;&gt;original!K4, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
         <v>221</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>216</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
-        <v>6</v>
-      </c>
       <c r="J5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5">
         <v>1989</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>151</v>
       </c>
-      <c r="O5" t="str">
+      <c r="P5" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="R5" t="str">
+        <f>IF(O5&lt;&gt;original!K5, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
         <v>182</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>240</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>45.507235999999999</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-122.655764</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>183</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
       <c r="J6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6">
         <v>1989</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>181</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>244</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <f t="shared" si="0"/>
         <v>45.507235999999999</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <f t="shared" si="0"/>
         <v>-122.655764</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="R6" t="str">
+        <f>IF(O6&lt;&gt;original!K6, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>262</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>240</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>42.596446</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-83.899548999999993</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>263</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>245</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>4</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>5</v>
       </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
       <c r="J7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7">
         <v>1977</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>57</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>246</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <f t="shared" si="0"/>
         <v>42.596446</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f t="shared" si="0"/>
         <v>-83.899548999999993</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="R7" t="str">
+        <f>IF(O7&lt;&gt;original!K7, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
         <v>167</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>240</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>45.562451000000003</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-122.572908</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>168</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>26</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
       <c r="J8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8">
         <v>1987</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>159</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>247</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <f t="shared" si="0"/>
         <v>45.562451000000003</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f t="shared" si="0"/>
         <v>-122.572908</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="R8" t="str">
+        <f>IF(O8&lt;&gt;original!K8, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>272</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>242</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>273</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>27</v>
       </c>
-      <c r="I9" t="s">
-        <v>6</v>
-      </c>
       <c r="J9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9">
         <v>1979</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>13</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P9" t="str">
+      <c r="Q9" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="R9" t="str">
+        <f>IF(O9&lt;&gt;original!K9, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
         <v>164</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>242</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>165</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>26</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" t="s">
-        <v>6</v>
-      </c>
       <c r="J10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10">
         <v>1987</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>95</v>
       </c>
-      <c r="O10" t="str">
+      <c r="P10" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P10" t="str">
+      <c r="Q10" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="R10" t="str">
+        <f>IF(O10&lt;&gt;original!K10, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
         <v>199</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>242</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>200</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>26</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>27</v>
       </c>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
       <c r="J11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11">
         <v>1989</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>201</v>
       </c>
-      <c r="O11" t="str">
+      <c r="P11" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P11" t="str">
+      <c r="Q11" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="R11" t="str">
+        <f>IF(O11&lt;&gt;original!K11, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>242</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>39</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>33</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>34</v>
       </c>
-      <c r="I12" t="s">
-        <v>6</v>
-      </c>
       <c r="J12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12">
         <v>1975</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>24</v>
       </c>
-      <c r="O12" t="str">
+      <c r="P12" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P12" t="str">
+      <c r="Q12" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="R12" t="str">
+        <f>IF(O12&lt;&gt;original!K12, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
         <v>149</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>240</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>32.810788000000002</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-96.810440999999997</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>172</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>174</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>33</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>34</v>
       </c>
-      <c r="I13" t="s">
-        <v>6</v>
-      </c>
       <c r="J13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13">
         <v>1987</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>173</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <f t="shared" si="0"/>
         <v>32.810788000000002</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <f t="shared" si="0"/>
         <v>-96.810440999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="R13" t="str">
+        <f>IF(O13&lt;&gt;original!K13, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="136" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>279</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>240</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>32.810788000000002</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-96.810440999999997</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>152</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>33</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>34</v>
       </c>
-      <c r="I14" t="s">
-        <v>6</v>
-      </c>
       <c r="J14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="L14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14">
         <v>1985</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>280</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <f t="shared" si="0"/>
         <v>32.810788000000002</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <f t="shared" si="0"/>
         <v>-96.810440999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="R14" t="str">
+        <f>IF(O14&lt;&gt;original!K14, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>96</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>242</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>97</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>26</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>27</v>
       </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
       <c r="J15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="L15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15">
         <v>1981</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>98</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>248</v>
       </c>
-      <c r="O15" t="str">
+      <c r="P15" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P15" t="str">
+      <c r="Q15" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="R15" t="str">
+        <f>IF(O15&lt;&gt;original!K15, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
         <v>176</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>242</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>177</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>4</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>5</v>
       </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
       <c r="J16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="L16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16">
         <v>1989</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>178</v>
       </c>
-      <c r="O16" t="str">
+      <c r="P16" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="R16" t="str">
+        <f>IF(O16&lt;&gt;original!K16, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
         <v>147</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>240</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>32.901850000000003</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-96.804329999999993</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>148</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>33</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>34</v>
       </c>
-      <c r="I17" t="s">
-        <v>6</v>
-      </c>
       <c r="J17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="L17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17">
         <v>1985</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>127</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>249</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <f t="shared" si="0"/>
         <v>32.901850000000003</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <f t="shared" si="0"/>
         <v>-96.804329999999993</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="R17" t="str">
+        <f>IF(O17&lt;&gt;original!K17, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
         <v>170</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>240</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>32.901850000000003</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-96.804329999999993</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>33</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
       <c r="J18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="L18" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18">
         <v>1987</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>127</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>249</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <f t="shared" si="0"/>
         <v>32.901850000000003</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <f t="shared" si="0"/>
         <v>-96.804329999999993</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="R18" t="str">
+        <f>IF(O18&lt;&gt;original!K18, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>135</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>242</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>4</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>5</v>
       </c>
-      <c r="I19" t="s">
-        <v>6</v>
-      </c>
       <c r="J19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="L19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19">
         <v>1985</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>17</v>
       </c>
-      <c r="O19" t="str">
+      <c r="P19" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P19" t="str">
+      <c r="Q19" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="R19" t="str">
+        <f>IF(O19&lt;&gt;original!K19, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
         <v>194</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>242</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>195</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>26</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>27</v>
       </c>
-      <c r="I20" t="s">
-        <v>6</v>
-      </c>
       <c r="J20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20">
         <v>1989</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>191</v>
       </c>
-      <c r="O20" t="str">
+      <c r="P20" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P20" t="str">
+      <c r="Q20" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="R20" t="str">
+        <f>IF(O20&lt;&gt;original!K20, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
         <v>264</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>242</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>265</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>3</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>4</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>5</v>
       </c>
-      <c r="I21" t="s">
-        <v>6</v>
-      </c>
       <c r="J21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="L21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21">
         <v>1975</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>2</v>
       </c>
-      <c r="O21" t="str">
+      <c r="P21" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P21" t="str">
+      <c r="Q21" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="R21" t="str">
+        <f>IF(O21&lt;&gt;original!K21, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>242</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>266</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>4</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>5</v>
       </c>
-      <c r="I22" t="s">
-        <v>6</v>
-      </c>
       <c r="J22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22">
+        <v>7</v>
+      </c>
+      <c r="L22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22">
         <v>1977</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>51</v>
       </c>
-      <c r="O22" t="str">
+      <c r="P22" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P22" t="str">
+      <c r="Q22" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="R22" t="str">
+        <f>IF(O22&lt;&gt;original!K22, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>242</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>12</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>4</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>5</v>
       </c>
-      <c r="I23" t="s">
-        <v>6</v>
-      </c>
       <c r="J23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K23" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="L23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23">
         <v>1975</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>13</v>
       </c>
-      <c r="O23" t="str">
+      <c r="P23" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P23" t="str">
+      <c r="Q23" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="R23" t="str">
+        <f>IF(O23&lt;&gt;original!K23, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>242</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>94</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>4</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>5</v>
       </c>
-      <c r="I24" t="s">
-        <v>6</v>
-      </c>
       <c r="J24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K24" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="L24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24">
         <v>1981</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>95</v>
-      </c>
-      <c r="O24" t="str">
-        <f>IF(C24&lt;&gt;"", C24, "no latitude")</f>
-        <v>no latitude</v>
       </c>
       <c r="P24" t="str">
         <f>IF(D24&lt;&gt;"", D24, "no latitude")</f>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="Q24" t="str">
+        <f>IF(E24&lt;&gt;"", E24, "no latitude")</f>
+        <v>no latitude</v>
+      </c>
+      <c r="R24" t="str">
+        <f>IF(O24&lt;&gt;original!K24, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>242</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>267</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>4</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>5</v>
       </c>
-      <c r="I25" t="s">
-        <v>6</v>
-      </c>
       <c r="J25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>8</v>
-      </c>
-      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="L25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25">
         <v>1983</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>95</v>
       </c>
-      <c r="O25" t="str">
+      <c r="P25" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P25" t="str">
+      <c r="Q25" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="R25" t="str">
+        <f>IF(O25&lt;&gt;original!K25, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>242</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>83</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>4</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>5</v>
       </c>
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
       <c r="J26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K26" t="s">
-        <v>8</v>
-      </c>
-      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="L26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26">
         <v>1979</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>84</v>
       </c>
-      <c r="O26" t="str">
+      <c r="P26" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P26" t="str">
+      <c r="Q26" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="R26" t="str">
+        <f>IF(O26&lt;&gt;original!K26, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
         <v>274</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>240</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>45.513370999999999</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-122.68489099999999</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>23</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>25</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>26</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>27</v>
       </c>
-      <c r="I27" t="s">
-        <v>6</v>
-      </c>
       <c r="J27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K27" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="L27" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27">
         <v>1975</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>24</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>250</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <f t="shared" si="0"/>
         <v>45.513370999999999</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <f t="shared" si="0"/>
         <v>-122.68489099999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="68" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="R27" t="str">
+        <f>IF(O27&lt;&gt;original!K27, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="170" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>111</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>242</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>26</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>27</v>
       </c>
-      <c r="I28" t="s">
-        <v>6</v>
-      </c>
       <c r="J28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K28" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="L28" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28">
         <v>1983</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>84</v>
       </c>
-      <c r="O28" t="str">
+      <c r="P28" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P28" t="str">
+      <c r="Q28" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="R28" t="str">
+        <f>IF(O28&lt;&gt;original!K28, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
         <v>111</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>242</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>213</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>33</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>34</v>
       </c>
-      <c r="I29" t="s">
-        <v>6</v>
-      </c>
       <c r="J29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K29" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="L29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29">
         <v>1989</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>178</v>
       </c>
-      <c r="O29" t="str">
+      <c r="P29" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P29" t="str">
+      <c r="Q29" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="R29" t="str">
+        <f>IF(O29&lt;&gt;original!K29, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
         <v>111</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>242</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>282</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>33</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>34</v>
       </c>
-      <c r="I30" t="s">
-        <v>6</v>
-      </c>
       <c r="J30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K30" t="s">
-        <v>8</v>
-      </c>
-      <c r="L30">
+        <v>7</v>
+      </c>
+      <c r="L30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30">
         <v>1987</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>95</v>
       </c>
-      <c r="O30" t="str">
+      <c r="P30" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P30" t="str">
+      <c r="Q30" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="R30" t="str">
+        <f>IF(O30&lt;&gt;original!K30, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
         <v>111</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>242</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>134</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>33</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>34</v>
       </c>
-      <c r="I31" t="s">
-        <v>6</v>
-      </c>
       <c r="J31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>8</v>
-      </c>
-      <c r="L31">
+        <v>7</v>
+      </c>
+      <c r="L31" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31">
         <v>1983</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>84</v>
       </c>
-      <c r="O31" t="str">
+      <c r="P31" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P31" t="str">
+      <c r="Q31" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="R31" t="str">
+        <f>IF(O31&lt;&gt;original!K31, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
         <v>111</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>242</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>142</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>33</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>34</v>
       </c>
-      <c r="I32" t="s">
-        <v>6</v>
-      </c>
       <c r="J32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>8</v>
-      </c>
-      <c r="L32">
+        <v>7</v>
+      </c>
+      <c r="L32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32">
         <v>1985</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>95</v>
       </c>
-      <c r="O32" t="str">
+      <c r="P32" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P32" t="str">
+      <c r="Q32" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="R32" t="str">
+        <f>IF(O32&lt;&gt;original!K32, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
         <v>275</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>240</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>45.518417999999997</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-122.681878</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>70</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>26</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>27</v>
       </c>
-      <c r="I33" t="s">
-        <v>6</v>
-      </c>
       <c r="J33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K33" t="s">
-        <v>8</v>
-      </c>
-      <c r="L33">
+        <v>7</v>
+      </c>
+      <c r="L33" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33">
         <v>1977</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>69</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <f t="shared" si="0"/>
         <v>45.518417999999997</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <f t="shared" si="0"/>
         <v>-122.681878</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="R33" t="str">
+        <f>IF(O33&lt;&gt;original!K33, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
         <v>52</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>242</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>218</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>33</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>34</v>
       </c>
-      <c r="I34" t="s">
-        <v>6</v>
-      </c>
       <c r="J34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K34" t="s">
-        <v>8</v>
-      </c>
-      <c r="L34">
+        <v>7</v>
+      </c>
+      <c r="L34" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34">
         <v>1989</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>127</v>
       </c>
-      <c r="O34" t="str">
+      <c r="P34" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P34" t="str">
+      <c r="Q34" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="R34" t="str">
+        <f>IF(O34&lt;&gt;original!K34, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>242</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>53</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>4</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>5</v>
       </c>
-      <c r="I35" t="s">
-        <v>6</v>
-      </c>
       <c r="J35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35">
+        <v>7</v>
+      </c>
+      <c r="L35" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35">
         <v>1977</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>54</v>
       </c>
-      <c r="O35" t="str">
+      <c r="P35" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P35" t="str">
+      <c r="Q35" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="R35" t="str">
+        <f>IF(O35&lt;&gt;original!K35, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
         <v>160</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>242</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>162</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>26</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>27</v>
       </c>
-      <c r="I36" t="s">
-        <v>6</v>
-      </c>
       <c r="J36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K36" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="L36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M36">
         <v>1987</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>95</v>
-      </c>
-      <c r="O36" t="str">
-        <f>IF(C36&lt;&gt;"", C36, "no latitude")</f>
-        <v>no latitude</v>
       </c>
       <c r="P36" t="str">
         <f>IF(D36&lt;&gt;"", D36, "no latitude")</f>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="238" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="Q36" t="str">
+        <f>IF(E36&lt;&gt;"", E36, "no latitude")</f>
+        <v>no latitude</v>
+      </c>
+      <c r="R36" t="str">
+        <f>IF(O36&lt;&gt;original!K36, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
         <v>160</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>242</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>162</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>26</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>27</v>
       </c>
-      <c r="I37" t="s">
-        <v>6</v>
-      </c>
       <c r="J37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>8</v>
-      </c>
-      <c r="L37">
+        <v>7</v>
+      </c>
+      <c r="L37" t="s">
+        <v>8</v>
+      </c>
+      <c r="M37">
         <v>1989</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>2</v>
       </c>
-      <c r="O37" t="str">
+      <c r="P37" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P37" t="str">
+      <c r="Q37" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="102" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="R37" t="str">
+        <f>IF(O37&lt;&gt;original!K37, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="306" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
         <v>121</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>242</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>26</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>27</v>
       </c>
-      <c r="I38" t="s">
-        <v>6</v>
-      </c>
       <c r="J38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K38" t="s">
-        <v>8</v>
-      </c>
-      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="L38" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38">
         <v>1983</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>123</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>251</v>
       </c>
-      <c r="O38" t="str">
+      <c r="P38" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P38" t="str">
+      <c r="Q38" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="R38" t="str">
+        <f>IF(O38&lt;&gt;original!K38, "problem", "no problem")</f>
+        <v>problem</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
         <v>202</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>242</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>204</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>33</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>34</v>
       </c>
-      <c r="I39" t="s">
-        <v>6</v>
-      </c>
       <c r="J39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>8</v>
-      </c>
-      <c r="L39">
+        <v>7</v>
+      </c>
+      <c r="L39" t="s">
+        <v>8</v>
+      </c>
+      <c r="M39">
         <v>1989</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>151</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>252</v>
       </c>
-      <c r="O39" t="str">
+      <c r="P39" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P39" t="str">
+      <c r="Q39" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="R39" t="str">
+        <f>IF(O39&lt;&gt;original!K39, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
         <v>219</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>242</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>220</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>33</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>34</v>
       </c>
-      <c r="I40" t="s">
-        <v>6</v>
-      </c>
       <c r="J40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K40" t="s">
-        <v>8</v>
-      </c>
-      <c r="L40">
+        <v>7</v>
+      </c>
+      <c r="L40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M40">
         <v>1989</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>127</v>
       </c>
-      <c r="O40" t="str">
+      <c r="P40" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P40" t="str">
+      <c r="Q40" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="R40" t="str">
+        <f>IF(O40&lt;&gt;original!K40, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
         <v>189</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>242</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>190</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>26</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>27</v>
       </c>
-      <c r="I41" t="s">
-        <v>6</v>
-      </c>
       <c r="J41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K41" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="L41" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41">
         <v>1989</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>191</v>
       </c>
-      <c r="O41" t="str">
+      <c r="P41" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P41" t="str">
+      <c r="Q41" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="68" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="R41" t="str">
+        <f>IF(O41&lt;&gt;original!K41, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="170" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
         <v>211</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>240</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>32.807853999999999</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>-96.813775000000007</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>33</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>34</v>
       </c>
-      <c r="I42" t="s">
-        <v>6</v>
-      </c>
       <c r="J42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K42" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42">
+        <v>7</v>
+      </c>
+      <c r="L42" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42">
         <v>1989</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>178</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>253</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <f t="shared" si="0"/>
         <v>32.807853999999999</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <f t="shared" si="0"/>
         <v>-96.813775000000007</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="R42" t="str">
+        <f>IF(O42&lt;&gt;original!K42, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="204" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
         <v>214</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>240</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>32.807853999999999</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>-96.813775000000007</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>283</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>33</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>34</v>
       </c>
-      <c r="I43" t="s">
-        <v>6</v>
-      </c>
       <c r="J43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K43" t="s">
-        <v>8</v>
-      </c>
-      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="L43" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43">
         <v>1989</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>151</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>253</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <f t="shared" si="0"/>
         <v>32.807853999999999</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <f t="shared" si="0"/>
         <v>-96.813775000000007</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="R43" t="str">
+        <f>IF(O43&lt;&gt;original!K43, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
         <v>206</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>242</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>207</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>209</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>33</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>34</v>
       </c>
-      <c r="I44" t="s">
-        <v>6</v>
-      </c>
       <c r="J44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>8</v>
-      </c>
-      <c r="L44">
+        <v>7</v>
+      </c>
+      <c r="L44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44">
         <v>1989</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>208</v>
       </c>
-      <c r="O44" t="str">
+      <c r="P44" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P44" t="str">
+      <c r="Q44" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="R44" t="str">
+        <f>IF(O44&lt;&gt;original!K44, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
         <v>46</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>242</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>47</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>4</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>5</v>
       </c>
-      <c r="I45" t="s">
-        <v>6</v>
-      </c>
       <c r="J45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K45" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45">
+        <v>7</v>
+      </c>
+      <c r="L45" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45">
         <v>1977</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>48</v>
       </c>
-      <c r="O45" t="str">
+      <c r="P45" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P45" t="str">
+      <c r="Q45" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="R45" t="str">
+        <f>IF(O45&lt;&gt;original!K45, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
         <v>131</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>242</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>143</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>144</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>33</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>34</v>
       </c>
-      <c r="I46" t="s">
-        <v>6</v>
-      </c>
       <c r="J46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K46" t="s">
-        <v>8</v>
-      </c>
-      <c r="L46">
+        <v>7</v>
+      </c>
+      <c r="L46" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46">
         <v>1985</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>2</v>
       </c>
-      <c r="O46" t="str">
+      <c r="P46" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P46" t="str">
+      <c r="Q46" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="R46" t="str">
+        <f>IF(O46&lt;&gt;original!K46, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
         <v>131</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>242</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>132</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>33</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>34</v>
       </c>
-      <c r="I47" t="s">
-        <v>6</v>
-      </c>
       <c r="J47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K47" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47">
+        <v>7</v>
+      </c>
+      <c r="L47" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47">
         <v>1983</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>48</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>254</v>
       </c>
-      <c r="O47" t="str">
+      <c r="P47" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P47" t="str">
+      <c r="Q47" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="119" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="R47" t="str">
+        <f>IF(O47&lt;&gt;original!K47, "problem", "no problem")</f>
+        <v>problem</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="388" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
         <v>125</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>240</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>45.535412000000001</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>-122.64106700000001</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>128</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>26</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>27</v>
       </c>
-      <c r="I48" t="s">
-        <v>6</v>
-      </c>
       <c r="J48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48">
+        <v>7</v>
+      </c>
+      <c r="L48" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48">
         <v>1983</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>127</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <f t="shared" si="0"/>
         <v>45.535412000000001</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <f t="shared" si="0"/>
         <v>-122.64106700000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="R48" t="str">
+        <f>IF(O48&lt;&gt;original!K48, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
         <v>166</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>242</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>165</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>26</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>27</v>
       </c>
-      <c r="I49" t="s">
-        <v>6</v>
-      </c>
       <c r="J49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K49" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49">
+        <v>7</v>
+      </c>
+      <c r="L49" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49">
         <v>1987</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>95</v>
       </c>
-      <c r="O49" t="str">
+      <c r="P49" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P49" t="str">
+      <c r="Q49" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="R49" t="str">
+        <f>IF(O49&lt;&gt;original!K49, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
         <v>85</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>240</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>42.351474000000003</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>-82.995119000000003</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>268</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>255</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>4</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>5</v>
       </c>
-      <c r="I50" t="s">
-        <v>6</v>
-      </c>
       <c r="J50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K50" t="s">
-        <v>8</v>
-      </c>
-      <c r="L50">
+        <v>7</v>
+      </c>
+      <c r="L50" t="s">
+        <v>8</v>
+      </c>
+      <c r="M50">
         <v>1979</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>87</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>256</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <f t="shared" si="0"/>
         <v>42.351474000000003</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <f t="shared" si="0"/>
         <v>-82.995119000000003</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="68" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="R50" t="str">
+        <f>IF(O50&lt;&gt;original!K50, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="204" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
         <v>99</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>242</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>101</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>26</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>27</v>
       </c>
-      <c r="I51" t="s">
-        <v>6</v>
-      </c>
       <c r="J51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K51" t="s">
-        <v>8</v>
-      </c>
-      <c r="L51">
+        <v>7</v>
+      </c>
+      <c r="L51" t="s">
+        <v>8</v>
+      </c>
+      <c r="M51">
         <v>1981</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>2</v>
       </c>
-      <c r="O51" t="str">
+      <c r="P51" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P51" t="str">
+      <c r="Q51" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="R51" t="str">
+        <f>IF(O51&lt;&gt;original!K51, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
         <v>81</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>240</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>32.810535000000002</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>-96.811070999999998</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>82</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>33</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>34</v>
       </c>
-      <c r="I52" t="s">
-        <v>6</v>
-      </c>
       <c r="J52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52">
+        <v>7</v>
+      </c>
+      <c r="L52" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52">
         <v>1977</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>57</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>257</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <f t="shared" si="0"/>
         <v>32.810535000000002</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <f t="shared" si="0"/>
         <v>-96.811070999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="R52" t="str">
+        <f>IF(O52&lt;&gt;original!K52, "problem", "no problem")</f>
+        <v>problem</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>36</v>
+      </c>
+      <c r="B53" t="s">
         <v>119</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>242</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>141</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>26</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>27</v>
       </c>
-      <c r="I53" t="s">
-        <v>6</v>
-      </c>
       <c r="J53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K53" t="s">
-        <v>8</v>
-      </c>
-      <c r="L53">
+        <v>7</v>
+      </c>
+      <c r="L53" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53">
         <v>1985</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>95</v>
       </c>
-      <c r="O53" t="str">
+      <c r="P53" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P53" t="str">
+      <c r="Q53" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="R53" t="str">
+        <f>IF(O53&lt;&gt;original!K53, "problem", "no problem")</f>
+        <v>problem</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
         <v>119</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>242</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>120</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>26</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>27</v>
       </c>
-      <c r="I54" t="s">
-        <v>6</v>
-      </c>
       <c r="J54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54">
+        <v>7</v>
+      </c>
+      <c r="L54" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54">
         <v>1983</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>84</v>
       </c>
-      <c r="O54" t="str">
+      <c r="P54" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P54" t="str">
+      <c r="Q54" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="R54" t="str">
+        <f>IF(O54&lt;&gt;original!K54, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
         <v>179</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>240</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>45.536361999999997</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>-122.66392999999999</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>180</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>26</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>27</v>
       </c>
-      <c r="I55" t="s">
-        <v>6</v>
-      </c>
       <c r="J55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>8</v>
-      </c>
-      <c r="L55">
+        <v>7</v>
+      </c>
+      <c r="L55" t="s">
+        <v>8</v>
+      </c>
+      <c r="M55">
         <v>1989</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>181</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>258</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <f t="shared" si="0"/>
         <v>45.536361999999997</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <f t="shared" si="0"/>
         <v>-122.66392999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="R55" t="str">
+        <f>IF(O55&lt;&gt;original!K55, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
         <v>157</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>240</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>45.529505999999998</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>-122.687766</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>192</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>26</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>27</v>
       </c>
-      <c r="I56" t="s">
-        <v>6</v>
-      </c>
       <c r="J56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K56" t="s">
-        <v>8</v>
-      </c>
-      <c r="L56">
+        <v>7</v>
+      </c>
+      <c r="L56" t="s">
+        <v>8</v>
+      </c>
+      <c r="M56">
         <v>1989</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>159</v>
       </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>259</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <f t="shared" si="0"/>
         <v>45.529505999999998</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <f t="shared" si="0"/>
         <v>-122.687766</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="R56" t="str">
+        <f>IF(O56&lt;&gt;original!K56, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>42</v>
+      </c>
+      <c r="B57" t="s">
         <v>157</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>240</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>45.529505999999998</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>-122.687766</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>158</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>26</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>27</v>
       </c>
-      <c r="I57" t="s">
-        <v>6</v>
-      </c>
       <c r="J57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K57" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57">
+        <v>7</v>
+      </c>
+      <c r="L57" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57">
         <v>1987</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>159</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>259</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <f t="shared" si="0"/>
         <v>45.529505999999998</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <f t="shared" si="0"/>
         <v>-122.687766</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="R57" t="str">
+        <f>IF(O57&lt;&gt;original!K57, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
         <v>104</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>242</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>105</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>107</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>26</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>27</v>
       </c>
-      <c r="I58" t="s">
-        <v>6</v>
-      </c>
       <c r="J58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K58" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58">
+        <v>7</v>
+      </c>
+      <c r="L58" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58">
         <v>1981</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>106</v>
-      </c>
-      <c r="O58" t="str">
-        <f>IF(C58&lt;&gt;"", C58, "no latitude")</f>
-        <v>no latitude</v>
       </c>
       <c r="P58" t="str">
         <f>IF(D58&lt;&gt;"", D58, "no latitude")</f>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="Q58" t="str">
+        <f>IF(E58&lt;&gt;"", E58, "no latitude")</f>
+        <v>no latitude</v>
+      </c>
+      <c r="R58" t="str">
+        <f>IF(O58&lt;&gt;original!K58, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
         <v>77</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>242</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>78</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>33</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>34</v>
       </c>
-      <c r="I59" t="s">
-        <v>6</v>
-      </c>
       <c r="J59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K59" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59">
+        <v>7</v>
+      </c>
+      <c r="L59" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59">
         <v>1977</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>79</v>
       </c>
-      <c r="O59" t="str">
+      <c r="P59" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P59" t="str">
+      <c r="Q59" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="34" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="R59" t="str">
+        <f>IF(O59&lt;&gt;original!K59, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="119" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
         <v>136</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>240</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>45.518194000000001</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>-122.68327499999999</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>138</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>26</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>27</v>
       </c>
-      <c r="I60" t="s">
-        <v>6</v>
-      </c>
       <c r="J60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K60" t="s">
-        <v>8</v>
-      </c>
-      <c r="L60">
+        <v>7</v>
+      </c>
+      <c r="L60" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60">
         <v>1985</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>69</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <f t="shared" si="0"/>
         <v>45.518194000000001</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <f t="shared" si="0"/>
         <v>-122.68327499999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="R60" t="str">
+        <f>IF(O60&lt;&gt;original!K60, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
         <v>18</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>240</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>42.373010999999998</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>-83.187939</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>269</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>4</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>5</v>
       </c>
-      <c r="I61" t="s">
-        <v>6</v>
-      </c>
       <c r="J61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K61" t="s">
-        <v>8</v>
-      </c>
-      <c r="L61">
+        <v>7</v>
+      </c>
+      <c r="L61" t="s">
+        <v>8</v>
+      </c>
+      <c r="M61">
         <v>1975</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>17</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>270</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <f t="shared" si="0"/>
         <v>42.373010999999998</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <f t="shared" si="0"/>
         <v>-83.187939</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="R61" t="str">
+        <f>IF(O61&lt;&gt;original!K61, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
         <v>30</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>242</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>31</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>32</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>33</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>34</v>
       </c>
-      <c r="I62" t="s">
-        <v>6</v>
-      </c>
       <c r="J62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K62" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62">
+        <v>7</v>
+      </c>
+      <c r="L62" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62">
         <v>1975</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>2</v>
       </c>
-      <c r="O62" t="str">
+      <c r="P62" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P62" t="str">
+      <c r="Q62" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="R62" t="str">
+        <f>IF(O62&lt;&gt;original!K62, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>53</v>
+      </c>
+      <c r="B63" t="s">
         <v>184</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>242</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>185</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>187</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>26</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>27</v>
       </c>
-      <c r="I63" t="s">
-        <v>6</v>
-      </c>
       <c r="J63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K63" t="s">
-        <v>8</v>
-      </c>
-      <c r="L63">
+        <v>7</v>
+      </c>
+      <c r="L63" t="s">
+        <v>8</v>
+      </c>
+      <c r="M63">
         <v>1989</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>186</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>260</v>
       </c>
-      <c r="O63" t="str">
+      <c r="P63" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P63" t="str">
+      <c r="Q63" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="R63" t="str">
+        <f>IF(O63&lt;&gt;original!K63, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
         <v>41</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>240</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>32.810642000000001</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>-96.811404999999993</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>42</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>43</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>33</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>34</v>
       </c>
-      <c r="I64" t="s">
-        <v>6</v>
-      </c>
       <c r="J64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K64" t="s">
-        <v>8</v>
-      </c>
-      <c r="L64">
+        <v>7</v>
+      </c>
+      <c r="L64" t="s">
+        <v>8</v>
+      </c>
+      <c r="M64">
         <v>1975</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>17</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <f t="shared" si="0"/>
         <v>32.810642000000001</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <f t="shared" si="0"/>
         <v>-96.811404999999993</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="R64" t="str">
+        <f>IF(O64&lt;&gt;original!K64, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
         <v>58</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>242</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>271</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>60</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>4</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>5</v>
       </c>
-      <c r="I65" t="s">
-        <v>6</v>
-      </c>
       <c r="J65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K65" t="s">
-        <v>8</v>
-      </c>
-      <c r="L65">
+        <v>7</v>
+      </c>
+      <c r="L65" t="s">
+        <v>8</v>
+      </c>
+      <c r="M65">
         <v>1977</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>57</v>
       </c>
-      <c r="O65" t="str">
+      <c r="P65" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-      <c r="P65" t="str">
+      <c r="Q65" t="str">
         <f t="shared" si="0"/>
         <v>no latitude</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="R65" t="str">
+        <f>IF(O65&lt;&gt;original!K65, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
         <v>113</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>240</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>25.762421</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>-80.200874999999996</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>114</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>116</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>26</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>27</v>
       </c>
-      <c r="I66" t="s">
-        <v>6</v>
-      </c>
       <c r="J66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K66" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66">
+        <v>7</v>
+      </c>
+      <c r="L66" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66">
         <v>1983</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>115</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <f t="shared" si="0"/>
         <v>25.762421</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <f t="shared" si="0"/>
         <v>-80.200874999999996</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" ht="136" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="R66" t="str">
+        <f>IF(O66&lt;&gt;original!K66, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>58</v>
+      </c>
+      <c r="B67" t="s">
         <v>196</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>240</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>45.522750000000002</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>-122.65258300000001</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>26</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>27</v>
       </c>
-      <c r="I67" t="s">
-        <v>6</v>
-      </c>
       <c r="J67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K67" t="s">
-        <v>8</v>
-      </c>
-      <c r="L67">
+        <v>7</v>
+      </c>
+      <c r="L67" t="s">
+        <v>8</v>
+      </c>
+      <c r="M67">
         <v>1989</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>198</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>278</v>
       </c>
-      <c r="O67">
-        <f t="shared" ref="O67:P68" si="1">IF(C67&lt;&gt;"", C67, "no latitude")</f>
+      <c r="P67">
+        <f t="shared" ref="P67:Q68" si="1">IF(D67&lt;&gt;"", D67, "no latitude")</f>
         <v>45.522750000000002</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <f t="shared" si="1"/>
         <v>-122.65258300000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="R67" t="str">
+        <f>IF(O67&lt;&gt;original!K67, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
         <v>63</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>242</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>64</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>66</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>4</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>5</v>
       </c>
-      <c r="I68" t="s">
-        <v>6</v>
-      </c>
       <c r="J68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K68" t="s">
-        <v>8</v>
-      </c>
-      <c r="L68">
+        <v>7</v>
+      </c>
+      <c r="L68" t="s">
+        <v>8</v>
+      </c>
+      <c r="M68">
         <v>1977</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>65</v>
-      </c>
-      <c r="O68" t="str">
-        <f t="shared" si="1"/>
-        <v>no latitude</v>
       </c>
       <c r="P68" t="str">
         <f t="shared" si="1"/>
         <v>no latitude</v>
       </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="1"/>
+        <v>no latitude</v>
+      </c>
+      <c r="R68" t="str">
+        <f>IF(O68&lt;&gt;original!K68, "problem", "no problem")</f>
+        <v>no problem</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P68" xr:uid="{BE9A569F-6CB1-3F45-AE72-0CBB29441BA2}"/>
+  <autoFilter ref="B1:Q68" xr:uid="{BE9A569F-6CB1-3F45-AE72-0CBB29441BA2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>